--- a/measures/5 hand-scoring of awareness criteria/to labs/coding-Hutter/data_awareness_for_hand_scoring_Hutter_coder1.xlsx
+++ b/measures/5 hand-scoring of awareness criteria/to labs/coding-Hutter/data_awareness_for_hand_scoring_Hutter_coder1.xlsx
@@ -1396,12 +1396,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1416,8 +1422,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1700,8 +1707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C159" sqref="C159"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1769,7 +1776,7 @@
       <c r="B3" t="s">
         <v>157</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>159</v>
       </c>
       <c r="D3" t="s">
@@ -1821,10 +1828,10 @@
       <c r="B5" t="s">
         <v>157</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>309</v>
       </c>
       <c r="E5" t="s">
@@ -1847,7 +1854,7 @@
       <c r="B6" t="s">
         <v>156</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D6" t="s">
